--- a/APC_2/hw/工作簿1.xlsx
+++ b/APC_2/hw/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCCNotes\APC_2\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{C3FAB83D-448F-411E-A7FC-70D6256FF484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBB630-9795-433D-93BB-6F1881526400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03127765-C4BE-45BB-BDA1-121A0DA145D5}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
